--- a/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_24_8.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_24_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999822105616334</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5959317322708699</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998740397244</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999998971012329</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999683960352805</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00263070269790441</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>236.0064341112306</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008924128635078122</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>2.176415885685191e-05</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004473057908530404</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02705344324712843</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05129037626986577</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000025114501224</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05347391377338976</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P2" t="n">
-        <v>93.88100856593034</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.8549173855266</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_1</t>
+          <t>model_24_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999822133864557</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5959325672685993</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998740384798999</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999998970375619</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999683964640967</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00263028496309306</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>236.0065575907207</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008924216806364151</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>2.177762594385629e-05</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004472997216154004</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02705572473413683</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05128630385486031</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000025110513239</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05346966798724646</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P3" t="n">
-        <v>93.88132617535211</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.8552349949483</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_2</t>
+          <t>model_24_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999860783065402</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5979867671823051</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999887916273018</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999984868898153</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999606408281158</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00205874046100783</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H4" t="n">
-        <v>236.3103327377287</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007940992449576554</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00320038532583597</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005570688887706263</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02509225092358927</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04537334527018952</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000019654155473</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04730498251411457</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P4" t="n">
-        <v>94.37132181974681</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q4" t="n">
-        <v>144.345230639343</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_3</t>
+          <t>model_24_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999985779520929</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.59817935331052</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998880186396032</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999819812014703</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999585088548015</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002102924886460597</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>236.3388123803477</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007933739904516656</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003811163191336387</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005872437107549566</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02489674235164549</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04585765897274518</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000020075970453</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04780991445365559</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P5" t="n">
-        <v>94.3288522004536</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.3027610200498</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_4</t>
+          <t>model_24_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999854098922479</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5983525972970609</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998878597235517</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999791642569937</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999563639489053</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002157585587298512</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>236.3644317064554</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007944998908828285</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004406976229779201</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006176015736601695</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02472679894382558</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04644981794688233</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000020597799179</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04842728286125982</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P6" t="n">
-        <v>94.27753093226048</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q6" t="n">
-        <v>144.2514397518567</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_5</t>
+          <t>model_24_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999850005474098</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5985090455416422</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998875640235935</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999764571659914</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999954267390628</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002218119514673749</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>236.3875672777207</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0079659488825595</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004979554116523892</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006472751499541697</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02457298016423213</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04709691619069924</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000021175697774</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04910192941699405</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P7" t="n">
-        <v>94.22219101504579</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q7" t="n">
-        <v>144.196099834642</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_6</t>
+          <t>model_24_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999845642484457</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5986494863026621</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998871290643084</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999738736412641</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999522281075854</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002282639419017584</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H8" t="n">
-        <v>236.4083356618201</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00799676520613727</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005525996451620259</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006761380828878763</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0244407141672363</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04777697582536576</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000021791649253</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04981094059822584</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P8" t="n">
-        <v>94.16484573128841</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.1387545508846</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_7</t>
+          <t>model_24_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999841170798613</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5987757563492613</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998865976786546</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999714295457574</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999502688721923</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002348766723166253</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>236.4270084802311</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008034413217832928</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006042948057268278</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007038680637550603</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02432702667365847</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04846407662554041</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000022422946078</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05052729270195866</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P9" t="n">
-        <v>94.10772977446747</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q9" t="n">
-        <v>144.0816385940637</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_8</t>
+          <t>model_24_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999836754138759</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5988898891530918</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998860525997685</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999691417079771</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999484229658389</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002414080302807035</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>236.4438864428046</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008073031377985436</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006526849529446679</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007299940453716057</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02422284666535443</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04913329118639453</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000023046474528</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05122499711213346</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P10" t="n">
-        <v>94.05287378281126</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q10" t="n">
-        <v>144.0267826024075</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_9</t>
+          <t>model_24_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999983242887366</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5989924253045273</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998854863952251</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999670026129257</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999466829130504</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002478042336520729</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>236.4590494920619</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008113146264643913</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006979290368347621</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007546218316495767</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02413128575153841</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04977993909719787</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000023657100189</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05189917416324541</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P11" t="n">
-        <v>94.00057282193046</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.9744816415267</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_10</t>
+          <t>model_24_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999828245150532</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5990846984752847</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998849032042174</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999650158571921</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999450524371987</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002539911247129956</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>236.472694851418</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008154464621142273</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007399509857993708</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00777698723956799</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02405029039062155</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05039753215317151</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000024247743454</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05254305943420571</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P12" t="n">
-        <v>93.95125228127401</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.9251611008702</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_11</t>
+          <t>model_24_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999824261969398</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5991678077455003</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998843310816654</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999631782382329</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999435361671305</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00259881454209647</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H13" t="n">
-        <v>236.4849850528774</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008194998791331037</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007788185369589187</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007991592080460113</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02397887372512205</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05097856943948575</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000024810074909</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O13" t="n">
-        <v>0.05314883268071135</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P13" t="n">
-        <v>93.9053997665538</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.87930858615</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999820495971425</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5992427204506401</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998837891640626</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999614824733942</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999421332768048</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002654506131801022</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>236.4960631460391</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008233392978499123</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J14" t="n">
-        <v>0.008146857260158673</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008190149752632419</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02391251456852537</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05152189953603246</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000025341745211</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05371529346431641</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P14" t="n">
-        <v>93.86299331195724</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.8369021315535</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_13</t>
+          <t>model_24_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999816966014193</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5993100917147587</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999883257347789</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999959927436555</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999408384152271</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002706707150311265</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>236.5060260106683</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008271071499075428</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008475763715993907</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008373417607534668</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02385556870681861</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05202602377955926</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000025840092114</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05424087932057118</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P15" t="n">
-        <v>93.82404491315393</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.7979537327502</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_14</t>
+          <t>model_24_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999813641317618</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5993706606574987</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998827415629848</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999584952273406</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999396391692864</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002755872773590881</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H16" t="n">
-        <v>236.514982947801</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00830761421000837</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00877869085240472</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.008543152531206546</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02380662214577248</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0524964072445999</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000026309461042</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05473128798354661</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P16" t="n">
-        <v>93.78804218064971</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q16" t="n">
-        <v>143.7619510002459</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_15</t>
+          <t>model_24_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999810559546358</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5994252432546887</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998822594229974</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999571857767315</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999385403235926</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002801446016535474</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>236.5230546239679</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008341773227587522</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J17" t="n">
-        <v>0.009055653267737192</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>0.008698677335277105</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02376191588336677</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0529286880296071</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000026744534632</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05518197185651616</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P17" t="n">
-        <v>93.75523912126083</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.729147940857</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_16</t>
+          <t>model_24_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999807704951369</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5994741694445629</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998818065433168</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999559917715611</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999375345551288</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002843659776095431</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H18" t="n">
-        <v>236.5302898304453</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008373859188864959</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J18" t="n">
-        <v>0.009308197772749034</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008841028480806996</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02372210608030261</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05332597656016654</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000027147536277</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05559617378232214</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P18" t="n">
-        <v>93.7253268057113</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.6992356253075</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_17</t>
+          <t>model_24_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999805082551351</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5995185805831513</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998813987240058</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999549003799144</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999366169916118</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002882439835718978</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H19" t="n">
-        <v>236.5368573509984</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008402752679086889</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009539038450859426</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0.008970895564973158</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02368477009879524</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05368835847480325</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000027517757456</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05597398304529892</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P19" t="n">
-        <v>93.69823635659193</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q19" t="n">
-        <v>143.6721451761882</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_18</t>
+          <t>model_24_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999802652258897</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5995582682342351</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998810056917168</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999539045490972</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999357748637396</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002918379008074888</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>236.5427263620727</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008430598527217514</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009749667020214759</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009090085887199884</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02365305393947489</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05402202336154106</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000027860857567</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05632185273704669</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P20" t="n">
-        <v>93.67345390213386</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.6473627217301</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_19</t>
+          <t>model_24_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999800424122793</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5995940381718954</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998806352084463</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999530015868375</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999350071087526</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002951328691689419</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H21" t="n">
-        <v>236.5480160215644</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008456846805472117</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J21" t="n">
-        <v>0.009940652924262633</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>0.009198749864867375</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02362639836051254</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05432613267746397</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000028175417959</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05663890861614151</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P21" t="n">
-        <v>93.65099961213862</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.6249084317349</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_20</t>
+          <t>model_24_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999798384034055</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5996260992660343</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998802955104</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999521797725207</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999343080242055</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00298149753027621</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H22" t="n">
-        <v>236.5527572171609</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008480913988934802</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0101144751948688</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009297694591901801</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02360208964837926</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05460309084911046</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000028463430486</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05692765747053744</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P22" t="n">
-        <v>93.63065915550175</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q22" t="n">
-        <v>143.604567975098</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_21</t>
+          <t>model_24_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999796534856272</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5996552207592991</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9998799953867377</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999514375300574</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999336779747627</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G23" t="n">
-        <v>0.003008843177064673</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H23" t="n">
-        <v>236.5570637044889</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008502177376594715</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01027146719133986</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009386868455620704</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02357918007189287</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05485292314056447</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000028724490879</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05718812563986279</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P23" t="n">
-        <v>93.61239920130063</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5863080208969</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_22</t>
+          <t>model_24_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999794847105973</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5996813592040591</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999879722543204</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999507622273305</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999331054232301</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003033801633743539</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H24" t="n">
-        <v>236.5609290585114</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I24" t="n">
-        <v>0.008521508001107058</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01041430073774635</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009467904369426707</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02355901752205395</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.05507995673331215</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00002896276151</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05742482452267807</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P24" t="n">
-        <v>93.59587756258586</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.5697863821821</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_8_23</t>
+          <t>model_24_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999793293764735</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5997048655584991</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9998794586521198</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999501490347619</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999325811950767</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003056772448788767</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H25" t="n">
-        <v>236.5644051789358</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I25" t="n">
-        <v>0.008540204355736492</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01054399734005124</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.009542100847893866</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02354019489805958</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05528808595700132</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000029182056743</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05764181423830657</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P25" t="n">
-        <v>93.58079134992292</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q25" t="n">
-        <v>143.5547001695192</v>
+        <v>165.268179127776</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999791889941808</v>
+        <v>0.999999900753416</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.599725898882062</v>
+        <v>0.6876245000598846</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9998792247509988</v>
+        <v>0.9999996622279347</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999495958288676</v>
+        <v>0.9999994525339465</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999321097163798</v>
+        <v>0.9999995618376588</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003077532186581061</v>
+        <v>5.891705945054375e-08</v>
       </c>
       <c r="H26" t="n">
-        <v>236.5675155874772</v>
+        <v>0.1854395906834327</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008556775958821393</v>
+        <v>4.960264897052699e-08</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01066100613716619</v>
+        <v>2.203587190523217e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009608831447434036</v>
+        <v>1.349806840114243e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02352437522167988</v>
+        <v>9.931498004524596e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05547550979108765</v>
+        <v>0.0002427283655664161</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000029380243509</v>
+        <v>1.000000140112824</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05783721709303077</v>
+        <v>0.0002530618146055635</v>
       </c>
       <c r="P26" t="n">
-        <v>93.56725448256503</v>
+        <v>115.2942703081797</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5411633021613</v>
+        <v>165.268179127776</v>
       </c>
     </row>
   </sheetData>
